--- a/docs/weekly_report/week_13/Meeting_Schedule.ver13.xlsx
+++ b/docs/weekly_report/week_13/Meeting_Schedule.ver13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yks\Desktop\github\CapstoneDesign2022_1_DEML\docs\weekly_report\week_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE5E3B8-E684-4D55-AC05-96B4C29CC8A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF9F68C-7C0E-4DF9-8C32-E29B663FC822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11330" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
   </bookViews>
@@ -380,6 +380,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,9 +396,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,7 +720,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -747,24 +747,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="3"/>
@@ -772,32 +772,32 @@
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26">
         <v>3</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26">
         <v>4</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26">
         <v>5</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="5">
         <v>44624</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -858,7 +858,7 @@
       <c r="A4" s="5">
         <v>44631</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="A5" s="5">
         <v>44638</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="A6" s="5">
         <v>44645</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -945,7 +945,7 @@
       <c r="A7" s="5">
         <v>44652</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
@@ -968,13 +968,13 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:23" ht="43.5" customHeight="1">
       <c r="A8" s="5">
         <v>44659</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="A9" s="5">
         <v>44666</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="A10" s="5">
         <v>44673</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1047,7 +1047,7 @@
       <c r="A11" s="5">
         <v>44680</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="A12" s="5">
         <v>44687</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="A13" s="5">
         <v>44694</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="A14" s="5">
         <v>44701</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1114,11 +1114,11 @@
       <c r="A15" s="5">
         <v>44708</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="21">
         <v>0.2</v>
       </c>
       <c r="E15" s="9"/>

--- a/docs/weekly_report/week_13/Meeting_Schedule.ver13.xlsx
+++ b/docs/weekly_report/week_13/Meeting_Schedule.ver13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yks\Desktop\github\CapstoneDesign2022_1_DEML\docs\weekly_report\week_13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuk6\Desktop\github\CapstoneDesign2022_1_DEML\docs\weekly_report\week_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF9F68C-7C0E-4DF9-8C32-E29B663FC822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997555F3-1E0D-4912-AD36-E75180C5627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11330" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
+    <workbookView xWindow="-3108" yWindow="6384" windowWidth="43200" windowHeight="23352" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,17 +720,17 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="82.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.25" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="2.19921875" customWidth="1"/>
+    <col min="6" max="6" width="40.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -883,7 +883,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:23" ht="38" customHeight="1">
+    <row r="5" spans="1:23" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="5">
         <v>44638</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:23" ht="31" customHeight="1">
+    <row r="6" spans="1:23" ht="31.05" customHeight="1">
       <c r="A6" s="5">
         <v>44645</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:23" ht="34" customHeight="1">
+    <row r="7" spans="1:23" ht="34.049999999999997" customHeight="1">
       <c r="A7" s="5">
         <v>44652</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="R8" s="13"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:23" ht="42.5" customHeight="1">
+    <row r="9" spans="1:23" ht="42.45" customHeight="1">
       <c r="A9" s="5">
         <v>44666</v>
       </c>
@@ -1089,7 +1089,6 @@
         <v>13</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="5">

--- a/docs/weekly_report/week_13/Meeting_Schedule.ver13.xlsx
+++ b/docs/weekly_report/week_13/Meeting_Schedule.ver13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuk6\Desktop\github\CapstoneDesign2022_1_DEML\docs\weekly_report\week_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997555F3-1E0D-4912-AD36-E75180C5627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8A2E88-D1EF-4C1D-8E99-98192244FBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3108" yWindow="6384" windowWidth="43200" windowHeight="23352" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
+    <workbookView xWindow="-8748" yWindow="5664" windowWidth="43200" windowHeight="23352" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>RNN 및 Unet을 LDPC에 적용하여 5G NR에 접목 + Github 관리 + 기말 보고서 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +250,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEA7CEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,19 +411,37 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8A6D09-9290-4F97-AF3E-53E8BCFCF1CF}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -747,24 +793,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="3"/>
@@ -772,33 +818,33 @@
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24">
         <v>3</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24">
         <v>4</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24">
         <v>5</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="5">
         <v>44624</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
@@ -858,7 +904,9 @@
       <c r="A4" s="5">
         <v>44631</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -887,7 +935,7 @@
       <c r="A5" s="5">
         <v>44638</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
@@ -916,7 +964,7 @@
       <c r="A6" s="5">
         <v>44645</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -945,7 +993,7 @@
       <c r="A7" s="5">
         <v>44652</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
@@ -974,7 +1022,7 @@
       <c r="A8" s="5">
         <v>44659</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
@@ -1003,7 +1051,7 @@
       <c r="A9" s="5">
         <v>44666</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
@@ -1032,9 +1080,7 @@
       <c r="A10" s="5">
         <v>44673</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B10" s="27"/>
       <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1047,7 +1093,9 @@
       <c r="A11" s="5">
         <v>44680</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1060,7 +1108,7 @@
       <c r="A12" s="5">
         <v>44687</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +1125,7 @@
       <c r="A13" s="5">
         <v>44694</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1094,9 +1142,7 @@
       <c r="A14" s="5">
         <v>44701</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="B14" s="30"/>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1113,12 +1159,14 @@
       <c r="A15" s="5">
         <v>44708</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="21">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E15" s="9"/>
       <c r="G15" t="s">
@@ -1130,55 +1178,42 @@
       <c r="A16" s="5">
         <v>44715</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="5">
-        <v>44722</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="5">
-        <v>44729</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="5">
-        <v>44736</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="5">
-        <v>44743</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="B16" s="32"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:15">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="5:15">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="5:15">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="5:15">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="5:15">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="5:15">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="5:15">
+      <c r="E23" s="1"/>
       <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="5:15">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="5:15">
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:S1"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:O2"/>
